--- a/src/main/resources/bootstrap_guid.xlsx
+++ b/src/main/resources/bootstrap_guid.xlsx
@@ -1,26 +1,192 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="4530"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cron設定方法" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>設定可能な数値</t>
+  </si>
+  <si>
+    <t>設定項目</t>
+  </si>
+  <si>
+    <t>数値</t>
+  </si>
+  <si>
+    <t>分</t>
+  </si>
+  <si>
+    <t>0-59</t>
+  </si>
+  <si>
+    <t>時</t>
+  </si>
+  <si>
+    <t>0-23</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>曜日</t>
+  </si>
+  <si>
+    <t>0-7 (0または7は日曜日）</t>
+  </si>
+  <si>
+    <t>0=日、1=月、2=火、3=水、4=木、5=金、6=土、7=日</t>
+  </si>
+  <si>
+    <t>実行時間指定方法</t>
+  </si>
+  <si>
+    <t>指定方法</t>
+  </si>
+  <si>
+    <t>設定例</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>リスト</t>
+  </si>
+  <si>
+    <t>0,10,20,30</t>
+  </si>
+  <si>
+    <t>分フィールド指定した場合は0,10,20,30分に実行します。</t>
+  </si>
+  <si>
+    <t>範囲</t>
+  </si>
+  <si>
+    <t>月フィールドで指定した場合、1,2,3,4,5月に処理を実行します。</t>
+  </si>
+  <si>
+    <t>共存</t>
+  </si>
+  <si>
+    <t>1,6,9-11</t>
+  </si>
+  <si>
+    <t>時間フィールドで指定した場合、1時、6時、9時、10時、11時に処理を実行します。</t>
+  </si>
+  <si>
+    <t>間隔</t>
+  </si>
+  <si>
+    <t>*/10</t>
+  </si>
+  <si>
+    <t>分フィールドで指定した場合、10分間隔で処理を実行します。「/」の後ろに指定した値の間隔で処理を実行します。</t>
+  </si>
+  <si>
+    <t>毎時15分になると実行</t>
+  </si>
+  <si>
+    <t>15  *  *  *  *</t>
+  </si>
+  <si>
+    <t>毎日AM 4:02 に実行</t>
+  </si>
+  <si>
+    <t>02  4  *  *  *</t>
+  </si>
+  <si>
+    <t>毎月10日のAM 6:15 に実行</t>
+  </si>
+  <si>
+    <t>15  6  10  *  *</t>
+  </si>
+  <si>
+    <t>7月1日 AM 3:00に実行</t>
+  </si>
+  <si>
+    <t>00  3  1  7  *</t>
+  </si>
+  <si>
+    <t>毎週月曜日のAM 10:00に実行</t>
+  </si>
+  <si>
+    <t>00  10  *  *  1</t>
+  </si>
+  <si>
+    <t>10分ごとに実行する場合</t>
+  </si>
+  <si>
+    <t>*/10  *  *  *  *</t>
+  </si>
+  <si>
+    <t>3時間ごとに実行する場合</t>
+  </si>
+  <si>
+    <t>00  0-23/3  *  *  *</t>
+  </si>
+  <si>
+    <t>毎日AM 4:30とAM 9:30に実行</t>
+  </si>
+  <si>
+    <t>30  4,9  *  *  *</t>
+  </si>
+  <si>
+    <t>毎週月、金曜日のAM 3:00に実行</t>
+  </si>
+  <si>
+    <t>00  3  *  *  1,5</t>
+  </si>
+  <si>
+    <t>毎日AM 3:00 4:00 5:00 6:00 7:00 9:00 に実行</t>
+  </si>
+  <si>
+    <t>00  3-9  *  *  *</t>
+  </si>
+  <si>
+    <t>毎月10日のAM 3:15 4:15 5:15 6:15 に実行</t>
+  </si>
+  <si>
+    <t>15  3-6  10  *  *</t>
+  </si>
+  <si>
+    <t>AM 1:00 6:00 9:00 10:00 11:00に実行</t>
+  </si>
+  <si>
+    <t>00  1,6,9-11  *  *  *</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -44,19 +210,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +308,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +516,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>